--- a/MyFirst_test.xlsx
+++ b/MyFirst_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\днс\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\днс\Documents\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3C1250-BCD1-4787-91D1-9929DF6F7AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C70B2-E361-4D2E-BBCC-525613F0B920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9374D10-3FEA-4235-A4D6-5803D2A29961}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>Тест-Кейс №1</t>
   </si>
@@ -1007,13 +1007,19 @@
   </si>
   <si>
     <t>Закрыть  Яндекс.Карты</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1034,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1167,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1190,24 +1204,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1215,86 +1265,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1611,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837635EA-8706-4F96-A62C-31357DCEA83C}">
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:D177"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,36 +1637,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1660,379 +1678,385 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="261" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="34"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="9"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2041,20 +2065,20 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
@@ -2063,114 +2087,114 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
@@ -2179,18 +2203,18 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="5" t="s">
         <v>6</v>
       </c>
@@ -2199,214 +2223,217 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="2"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="21"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="21"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="3"/>
       <c r="D72" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="17"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" ht="246.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="15"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="19"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="24" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+      <c r="B81" s="23"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="E83" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
@@ -2414,21 +2441,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="5" t="s">
         <v>87</v>
       </c>
@@ -2436,77 +2463,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
+    <row r="87" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="25"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="10"/>
       <c r="D89" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:5" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:5" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="16" t="s">
+    <row r="94" spans="1:5" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="17"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="2" t="s">
         <v>93</v>
       </c>
@@ -2514,97 +2541,97 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="19"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="10"/>
       <c r="D95" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:5" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="19"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="21"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
     </row>
     <row r="103" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="2" t="s">
         <v>22</v>
       </c>
@@ -2613,20 +2640,20 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="10"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="5" t="s">
         <v>107</v>
       </c>
@@ -2635,87 +2662,87 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="13"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="19"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="10"/>
       <c r="D110" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="21"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="13"/>
       <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="159.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="19" t="s">
+      <c r="B116" s="15"/>
+      <c r="C116" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -2723,380 +2750,380 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="21"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="8" t="s">
+      <c r="B118" s="15"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="17"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B120" s="10"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="17"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="9"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8" t="s">
+      <c r="B122" s="15"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="8" t="s">
+      <c r="B124" s="15"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="10"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="17"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D127" s="9"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="10"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="8" t="s">
+      <c r="B130" s="15"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="8" t="s">
+      <c r="B132" s="15"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="8" t="s">
+      <c r="B134" s="15"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="41">
+      <c r="A136" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="8" t="s">
+      <c r="B136" s="21"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="41">
+      <c r="A138" s="20">
         <v>0.625</v>
       </c>
-      <c r="B138" s="42"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="8" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="41">
+      <c r="A140" s="20">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B140" s="42"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="8" t="s">
+      <c r="B140" s="21"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="17"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="41">
+      <c r="A142" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B142" s="42"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="8" t="s">
+      <c r="B142" s="21"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" ht="116" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="41">
+      <c r="A144" s="20">
         <v>0.75</v>
       </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="8" t="s">
+      <c r="B144" s="21"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="17"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="41">
+      <c r="A146" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B146" s="42"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="8" t="s">
+      <c r="B146" s="21"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="41">
+      <c r="A148" s="20">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B148" s="42"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="8" t="s">
+      <c r="B148" s="21"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" ht="116" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="41">
+      <c r="A150" s="20">
         <v>0.875</v>
       </c>
-      <c r="B150" s="42"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="8" t="s">
+      <c r="B150" s="21"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
     </row>
     <row r="156" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="9"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="2" t="s">
         <v>22</v>
       </c>
@@ -3105,20 +3132,20 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="10"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="17"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="2" t="s">
         <v>163</v>
       </c>
@@ -3127,31 +3154,31 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="19"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="10"/>
       <c r="D161" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="21"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="8" t="s">
+      <c r="B163" s="15"/>
+      <c r="C163" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -3159,179 +3186,343 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="17"/>
-      <c r="C164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="13"/>
       <c r="D164" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B165" s="10"/>
-      <c r="C165" s="8"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="17"/>
-      <c r="C166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="13"/>
       <c r="D166" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B167" s="10"/>
-      <c r="C167" s="19"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="10"/>
       <c r="D167" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="17"/>
-      <c r="C168" s="21"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="11"/>
       <c r="D168" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B169" s="10"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="8" t="s">
+      <c r="B169" s="15"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="34"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="16"/>
     </row>
     <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="16"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="9"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B172" s="10"/>
-      <c r="C172" s="8" t="s">
+      <c r="B172" s="15"/>
+      <c r="C172" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="17"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="8" t="s">
+      <c r="B174" s="15"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B175" s="17"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="17"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="268">
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C33:D35"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="A147:B147"/>
     <mergeCell ref="C146:C147"/>
@@ -3348,214 +3539,50 @@
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C33:D35"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A174:B174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
